--- a/memo.xlsx
+++ b/memo.xlsx
@@ -9,14 +9,62 @@
   <sheets>
     <sheet name="memo" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>[한국어] 만들고 싶은 문장과 표현을 쓰시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 엄청 덥네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 수업 어려웠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들고 싶은 문장과 표현 (단어, 조사, 부사 작성하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-네요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -363,17 +412,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
